--- a/Repartition des données.xlsx
+++ b/Repartition des données.xlsx
@@ -191,9 +191,6 @@
     <t xml:space="preserve">pizza</t>
   </si>
   <si>
-    <t xml:space="preserve">pk=user id + pizza id + pizza extra_id + drink id + dessert id + date</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -202,7 +199,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">fk : </t>
+      <t xml:space="preserve">pk=</t>
     </r>
     <r>
       <rPr>
@@ -211,13 +208,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">command id, user id, pizza id, productid, productid, productid</t>
+      <t xml:space="preserve">command id + </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">command</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -226,17 +218,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">hash index : command id, </t>
+      <t xml:space="preserve">user id + pizza id + pizza extra_id + drink id + dessert id + date</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">user id, pizza id, pizza extra_id, drink id, dessert id </t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">fk : user id, pizza id, productid, productid, productid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">command</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hash index : command id, user id, pizza id, pizza extra_id, drink id, dessert id </t>
   </si>
   <si>
     <t xml:space="preserve"> =product id</t>
@@ -656,7 +648,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="14627880" y="5793480"/>
+          <a:off x="14628600" y="5793480"/>
           <a:ext cx="3147120" cy="2239560"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -698,8 +690,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="16072920" y="2853360"/>
-          <a:ext cx="3313080" cy="977760"/>
+          <a:off x="16073640" y="2853360"/>
+          <a:ext cx="3312360" cy="977760"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -782,8 +774,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16288920" y="977040"/>
-          <a:ext cx="3116520" cy="28800"/>
+          <a:off x="16289640" y="977040"/>
+          <a:ext cx="3115800" cy="28800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1370,7 +1362,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.91"/>
@@ -1761,7 +1753,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I19" s="0" t="s">
         <v>56</v>
       </c>
@@ -1781,7 +1773,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I20" s="0" t="s">
         <v>57</v>
       </c>

--- a/Repartition des données.xlsx
+++ b/Repartition des données.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1701871\Documents\GIT DWWM 20\Cedric_Stage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="dimensionnal schema" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="dimensionnal schema" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,175 +24,235 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Poix Martine</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Poix Martine:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Uniquement boissons
+ et desserts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Poix Martine:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+si boisson ou dessert
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="84">
-  <si>
-    <t xml:space="preserve">Produits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TypesProduits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ComporteProduitRecette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idProduit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libelleProduit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idTypeProduit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantité en stock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libelleTypeProduit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idRecette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libelleRecette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imageRecette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idComporteProduitRecette</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quantité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sauce tomate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legumes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">creme fraiche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bologne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bœuf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fromage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jambon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boisson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dessert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TaillePizza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pizza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idTaillePizza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">libelleTaillePizza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TarifSupplement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idPizza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commandes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LignedeCommande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idCommande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idUser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateCommande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nbPointFidelite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">horaireLivraison</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IdLignedeCommande</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">product_by_recipe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">true</t>
-  </si>
-  <si>
-    <t xml:space="preserve">false</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vodka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mousse choco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pizza</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="103">
+  <si>
+    <t>Produits</t>
+  </si>
+  <si>
+    <t>TypesProduits</t>
+  </si>
+  <si>
+    <t>Recette</t>
+  </si>
+  <si>
+    <t>ComporteProduitRecette</t>
+  </si>
+  <si>
+    <t>idProduit</t>
+  </si>
+  <si>
+    <t>libelleProduit</t>
+  </si>
+  <si>
+    <t>idTypeProduit</t>
+  </si>
+  <si>
+    <t>Quantité en stock</t>
+  </si>
+  <si>
+    <t>Prix</t>
+  </si>
+  <si>
+    <t>libelleTypeProduit</t>
+  </si>
+  <si>
+    <t>idRecette</t>
+  </si>
+  <si>
+    <t>libelleRecette</t>
+  </si>
+  <si>
+    <t>imageRecette</t>
+  </si>
+  <si>
+    <t>idComporteProduitRecette</t>
+  </si>
+  <si>
+    <t>quantité</t>
+  </si>
+  <si>
+    <t>Sauce tomate</t>
+  </si>
+  <si>
+    <t>Legumes</t>
+  </si>
+  <si>
+    <t>Reine</t>
+  </si>
+  <si>
+    <t>creme fraiche</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Bologne</t>
+  </si>
+  <si>
+    <t>bœuf</t>
+  </si>
+  <si>
+    <t>Fromage</t>
+  </si>
+  <si>
+    <t>biere</t>
+  </si>
+  <si>
+    <t>Viande</t>
+  </si>
+  <si>
+    <t>jambon</t>
+  </si>
+  <si>
+    <t>Boisson</t>
+  </si>
+  <si>
+    <t>Dessert</t>
+  </si>
+  <si>
+    <t>TaillePizza</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>idTaillePizza</t>
+  </si>
+  <si>
+    <t>libelleTaillePizza</t>
+  </si>
+  <si>
+    <t>TarifSupplement</t>
+  </si>
+  <si>
+    <t>idPizza</t>
+  </si>
+  <si>
+    <t>Commandes</t>
+  </si>
+  <si>
+    <t>LignedeCommande</t>
+  </si>
+  <si>
+    <t>idCommande</t>
+  </si>
+  <si>
+    <t>idUser</t>
+  </si>
+  <si>
+    <t>dateCommande</t>
+  </si>
+  <si>
+    <t>nbPointFidelite</t>
+  </si>
+  <si>
+    <t>horaireLivraison</t>
+  </si>
+  <si>
+    <t>IdLignedeCommande</t>
+  </si>
+  <si>
+    <t>prix</t>
+  </si>
+  <si>
+    <t>19h</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>product_by_recipe</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>vodka</t>
+  </si>
+  <si>
+    <t>mousse choco</t>
+  </si>
+  <si>
+    <t>pizza</t>
   </si>
   <si>
     <r>
@@ -199,7 +263,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">pk=</t>
+      <t>pk=</t>
     </r>
     <r>
       <rPr>
@@ -218,14 +282,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">user id + pizza id + pizza extra_id + drink id + dessert id + date</t>
+      <t>user id + pizza id + pizza extra_id + drink id + dessert id + date</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">fk : user id, pizza id, productid, productid, productid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">command</t>
+    <t>fk : user id, pizza id, productid, productid, productid</t>
+  </si>
+  <si>
+    <t>command</t>
   </si>
   <si>
     <t xml:space="preserve">hash index : command id, user id, pizza id, pizza extra_id, drink id, dessert id </t>
@@ -234,84 +298,140 @@
     <t xml:space="preserve"> =product id</t>
   </si>
   <si>
-    <t xml:space="preserve">command id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_pizza_in_command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pizza id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pizza extra id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">drink id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">desert id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01-01-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02-01-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03-01-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User address changed &amp; prices changed &amp; no more vodka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pizza_extra_price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">first name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Doe 123 Main St Anytown, USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Doe 456 Main St Sometown, USA</t>
+    <t>command id</t>
+  </si>
+  <si>
+    <t>user id</t>
+  </si>
+  <si>
+    <t>num_pizza_in_command</t>
+  </si>
+  <si>
+    <t>pizza id</t>
+  </si>
+  <si>
+    <t>pizza extra id</t>
+  </si>
+  <si>
+    <t>drink id</t>
+  </si>
+  <si>
+    <t>desert id</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>02-01-2021</t>
+  </si>
+  <si>
+    <t>03-01-2021</t>
+  </si>
+  <si>
+    <t>User address changed &amp; prices changed &amp; no more vodka</t>
+  </si>
+  <si>
+    <t>pizza_extra_price</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>John Doe 123 Main St Anytown, USA</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>John Doe 456 Main St Sometown, USA</t>
+  </si>
+  <si>
+    <t>dateDeb</t>
+  </si>
+  <si>
+    <t>dateFin</t>
+  </si>
+  <si>
+    <t>si idProduit seul renseigné =&gt; boisson ou dessert</t>
+  </si>
+  <si>
+    <t>si idProduit et idTaillePizza renseigné =&gt; supplement</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>prenom</t>
+  </si>
+  <si>
+    <t>adresse</t>
+  </si>
+  <si>
+    <t>cp</t>
+  </si>
+  <si>
+    <t>ville</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>fidelité</t>
+  </si>
+  <si>
+    <t>Allergenes</t>
+  </si>
+  <si>
+    <t>libelle</t>
+  </si>
+  <si>
+    <t>composition</t>
+  </si>
+  <si>
+    <t>idComposition</t>
+  </si>
+  <si>
+    <t>idAllergenes</t>
+  </si>
+  <si>
+    <t>arachide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -320,25 +440,23 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -362,165 +480,119 @@
     </fill>
   </fills>
   <borders count="9">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
-      <top style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
-      <top style="hair"/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="hair"/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -579,13 +651,29 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -599,9 +687,9 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -614,15 +702,21 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -641,9 +735,9 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>118440</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Line 1"/>
+        <xdr:cNvPr id="3" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -656,15 +750,21 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -683,9 +783,9 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="4" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -698,15 +798,21 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -725,9 +831,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Line 1"/>
+        <xdr:cNvPr id="5" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -740,15 +846,21 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -767,9 +879,9 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 1"/>
+        <xdr:cNvPr id="6" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -782,15 +894,21 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -809,9 +927,9 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 1"/>
+        <xdr:cNvPr id="7" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -824,15 +942,21 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -851,9 +975,9 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 1"/>
+        <xdr:cNvPr id="8" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -866,15 +990,21 @@
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="3465A4"/>
           </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="minor"/>
       </xdr:style>
     </xdr:sp>
@@ -883,527 +1013,859 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Q43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.22"/>
+    <col min="5" max="5" width="8.33203125" customWidth="1"/>
+    <col min="6" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="18.21875" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" customWidth="1"/>
+    <col min="15" max="15" width="14.109375" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="0" t="s">
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="G2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="K2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="Q2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="U2" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="V2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" s="0" t="s">
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0" t="s">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="0" t="s">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" s="0" t="s">
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" s="0" t="n">
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="G5">
         <v>4</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="L5" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="T5">
         <v>3</v>
       </c>
-      <c r="O5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="L6" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="T6">
         <v>4</v>
       </c>
-      <c r="O6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="G7">
         <v>4</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="L7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G8" s="0" t="n">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="K8">
         <v>6</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="L8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="0" t="s">
+      <c r="N13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="F14" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="0" t="s">
+      <c r="N14" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="0" t="s">
+      <c r="O14" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="P14" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="Q14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="0" t="n">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>25</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="G15">
         <v>0.8</v>
       </c>
-      <c r="J15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B16" s="0" t="n">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
         <v>28</v>
       </c>
-      <c r="C16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M16" s="0" t="n">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <v>2</v>
+      </c>
+      <c r="Q16">
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J17" s="0" t="n">
+    <row r="17" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="N17">
         <v>3</v>
       </c>
-      <c r="K17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" s="0" t="n">
+      <c r="O17">
+        <v>2</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J18" s="0" t="n">
+    <row r="18" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="N18">
         <v>4</v>
       </c>
-      <c r="K18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M18" s="0" t="n">
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
         <v>13</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="M22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="F23" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="G23" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="H23" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="I23" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="M23" t="s">
         <v>41</v>
       </c>
-      <c r="J23" s="0" t="s">
+      <c r="N23" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="O23" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="0" t="s">
+      <c r="P23" t="s">
         <v>4</v>
       </c>
-      <c r="M23" s="0" t="s">
+      <c r="Q23" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="0" t="s">
+      <c r="R23" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="0" t="s">
+      <c r="S23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" s="2" t="n">
+    <row r="24" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2">
         <v>44197</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="H24">
         <v>10</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="I24" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" s="0" t="n">
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="R24">
         <v>3</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="S24">
         <v>11</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="0" t="n">
+    <row r="25" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
         <v>5</v>
       </c>
-      <c r="M25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O25" s="0" t="n">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="S25">
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I26" s="0" t="n">
+    <row r="26" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="M26">
         <v>3</v>
       </c>
-      <c r="J26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L26" s="0" t="n">
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
         <v>4</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="S26">
         <v>3</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="P28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="5:19" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" t="s">
+        <v>91</v>
+      </c>
+      <c r="I30" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30" t="s">
+        <v>94</v>
+      </c>
+      <c r="L30" t="s">
+        <v>95</v>
+      </c>
+      <c r="M30" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:V51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="12.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="33.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="8.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="6.21"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" customWidth="1"/>
+    <col min="11" max="11" width="7" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" customWidth="1"/>
+    <col min="16" max="16" width="9.6640625" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" customWidth="1"/>
+    <col min="18" max="18" width="33.33203125" customWidth="1"/>
+    <col min="19" max="19" width="8.77734375" customWidth="1"/>
+    <col min="20" max="20" width="6.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>46</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" t="s">
         <v>47</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="R4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
@@ -1450,242 +1912,242 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="n">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>2</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="0" t="s">
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
         <v>17</v>
       </c>
       <c r="N6" s="7"/>
-      <c r="R6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T6" s="0" t="n">
+      <c r="R6" s="6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
         <v>1</v>
       </c>
       <c r="U6" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7">
         <v>2</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="L7" s="8" t="n">
+      <c r="L7" s="8">
         <v>2</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="N7" s="10"/>
-      <c r="R7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="0" t="n">
+      <c r="R7" s="6">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
         <v>5</v>
       </c>
       <c r="U7" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="6">
         <v>3</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8">
         <v>4</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="6" t="n">
+      <c r="R8" s="6">
         <v>3</v>
       </c>
-      <c r="S8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T8" s="0" t="n">
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
         <v>1</v>
       </c>
       <c r="U8" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="n">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="6">
         <v>4</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9">
         <v>3</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R9" s="6" t="n">
+      <c r="R9" s="6">
         <v>4</v>
       </c>
-      <c r="S9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T9" s="0" t="n">
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
         <v>2</v>
       </c>
       <c r="U9" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="n">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="6">
         <v>5</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>4</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="R10" s="6" t="n">
+      <c r="R10" s="6">
         <v>5</v>
       </c>
-      <c r="S10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T10" s="0" t="n">
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
         <v>2</v>
       </c>
       <c r="U10" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="n">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>6</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="6" t="n">
+      <c r="D11" s="6">
         <v>6</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>5</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11">
         <v>5</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="R11" s="8" t="n">
+      <c r="R11" s="8">
         <v>6</v>
       </c>
-      <c r="S11" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="T11" s="9" t="n">
+      <c r="S11" s="9">
+        <v>2</v>
+      </c>
+      <c r="T11" s="9">
         <v>2</v>
       </c>
       <c r="U11" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="8" t="n">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D12" s="8">
         <v>7</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="9">
         <v>6</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="9" t="n">
+      <c r="H12" s="9">
         <v>4</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R14" s="0" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R14" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R15" s="3" t="s">
         <v>49</v>
       </c>
@@ -1702,127 +2164,127 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R16" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U16" s="0" t="n">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="R16" s="6">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
         <v>10</v>
       </c>
       <c r="V16" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R17" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="S17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="U17" s="0" t="n">
+    <row r="17" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="R17" s="6">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17">
+        <v>2</v>
+      </c>
+      <c r="U17">
         <v>12</v>
       </c>
       <c r="V17" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R18" s="6" t="n">
+    <row r="18" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="R18" s="6">
         <v>3</v>
       </c>
-      <c r="S18" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U18" s="0" t="n">
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
         <v>11</v>
       </c>
       <c r="V18" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I19" s="0" t="s">
+    <row r="19" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
         <v>56</v>
       </c>
-      <c r="R19" s="6" t="n">
+      <c r="R19" s="6">
         <v>4</v>
       </c>
-      <c r="S19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="T19" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="U19" s="0" t="n">
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
         <v>13</v>
       </c>
       <c r="V19" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I20" s="0" t="s">
+    <row r="20" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
         <v>57</v>
       </c>
-      <c r="R20" s="6" t="n">
+      <c r="R20" s="6">
         <v>5</v>
       </c>
-      <c r="S20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U20" s="0" t="n">
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
         <v>14</v>
       </c>
       <c r="V20" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H21" s="0" t="s">
+    <row r="21" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
         <v>58</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" t="s">
         <v>59</v>
       </c>
-      <c r="R21" s="8" t="n">
+      <c r="R21" s="8">
         <v>6</v>
       </c>
-      <c r="S21" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="T21" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="U21" s="9" t="n">
+      <c r="S21" s="9">
+        <v>1</v>
+      </c>
+      <c r="T21" s="9">
+        <v>2</v>
+      </c>
+      <c r="U21" s="9">
         <v>16</v>
       </c>
       <c r="V21" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="8:22" x14ac:dyDescent="0.3">
       <c r="I22" s="11"/>
-      <c r="J22" s="0" t="s">
+      <c r="J22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="8:22" x14ac:dyDescent="0.3">
       <c r="H23" s="3" t="s">
         <v>61</v>
       </c>
@@ -1851,221 +2313,221 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H24" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" s="0" t="n">
+    <row r="24" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
         <v>3</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="O24">
         <v>11</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H25" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" s="0" t="n">
+    <row r="25" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="N25">
         <v>7</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="O25">
         <v>4</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H26" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="O26" s="0" t="n">
+    <row r="26" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H26" s="6">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="O26">
         <v>12</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H27" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" s="0" t="n">
+    <row r="27" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H27" s="6">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="O27">
         <v>1</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H28" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="0" t="n">
+    <row r="28" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H28" s="6">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="L28">
         <v>5</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="O28">
         <v>1</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H29" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" s="0" t="n">
+    <row r="29" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H29" s="6">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="M29">
         <v>6</v>
       </c>
-      <c r="O29" s="0" t="n">
+      <c r="O29">
         <v>5</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H30" s="6" t="n">
+    <row r="30" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H30" s="6">
         <v>3</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30">
         <v>3</v>
       </c>
-      <c r="J30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" s="0" t="n">
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
         <v>6</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="O30">
         <v>16</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="0" t="s">
+      <c r="Q30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H31" s="6" t="n">
+    <row r="31" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H31" s="6">
         <v>3</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31">
         <v>3</v>
       </c>
-      <c r="J31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" s="0" t="n">
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="O31">
         <v>1.2</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="6" t="n">
+    <row r="32" spans="8:22" x14ac:dyDescent="0.3">
+      <c r="H32" s="6">
         <v>3</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32">
         <v>3</v>
       </c>
-      <c r="J32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" s="0" t="n">
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="L32">
         <v>5</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="O32">
         <v>1.2</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="8" t="n">
+    <row r="33" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="H33" s="8">
         <v>3</v>
       </c>
-      <c r="I33" s="13" t="n">
+      <c r="I33" s="13">
         <v>3</v>
       </c>
-      <c r="J33" s="13" t="n">
+      <c r="J33" s="13">
         <v>1</v>
       </c>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
-      <c r="M33" s="13" t="n">
+      <c r="M33" s="13">
         <v>4</v>
       </c>
       <c r="N33" s="13"/>
-      <c r="O33" s="13" t="n">
+      <c r="O33" s="13">
         <v>3</v>
       </c>
       <c r="P33" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G46" s="0" t="s">
+    <row r="46" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
         <v>74</v>
       </c>
-      <c r="N46" s="0" t="s">
+      <c r="N46" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="7:18" x14ac:dyDescent="0.3">
       <c r="G47" s="3" t="s">
         <v>49</v>
       </c>
@@ -2094,78 +2556,78 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G48" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H48" s="0" t="n">
+    <row r="48" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G48" s="6">
+        <v>1</v>
+      </c>
+      <c r="H48">
         <v>25</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="I48">
         <v>0.8</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N48" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" s="0" t="s">
+      <c r="N48" s="6">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
         <v>79</v>
       </c>
-      <c r="P48" s="0" t="s">
+      <c r="P48" t="s">
         <v>80</v>
       </c>
-      <c r="Q48" s="0" t="s">
+      <c r="Q48" t="s">
         <v>81</v>
       </c>
       <c r="R48" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G49" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" s="0" t="n">
+    <row r="49" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G49" s="6">
+        <v>2</v>
+      </c>
+      <c r="H49">
         <v>28</v>
       </c>
-      <c r="I49" s="0" t="n">
+      <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="N49" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="O49" s="0" t="s">
+      <c r="N49" s="6">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
         <v>82</v>
       </c>
-      <c r="P49" s="0" t="s">
+      <c r="P49" t="s">
         <v>80</v>
       </c>
-      <c r="Q49" s="0" t="s">
+      <c r="Q49" t="s">
         <v>81</v>
       </c>
       <c r="R49" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G50" s="6" t="n">
+    <row r="50" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G50" s="6">
         <v>3</v>
       </c>
-      <c r="H50" s="0" t="n">
+      <c r="H50">
         <v>25</v>
       </c>
-      <c r="I50" s="0" t="n">
+      <c r="I50">
         <v>0.9</v>
       </c>
       <c r="J50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="N50" s="8" t="n">
+      <c r="N50" s="8">
         <v>3</v>
       </c>
       <c r="O50" s="9" t="s">
@@ -2181,14 +2643,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G51" s="8" t="n">
+    <row r="51" spans="7:18" x14ac:dyDescent="0.3">
+      <c r="G51" s="8">
         <v>4</v>
       </c>
-      <c r="H51" s="9" t="n">
+      <c r="H51" s="9">
         <v>28</v>
       </c>
-      <c r="I51" s="9" t="n">
+      <c r="I51" s="9">
         <v>1.2</v>
       </c>
       <c r="J51" s="10" t="s">
@@ -2196,10 +2658,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
